--- a/data/prev_planner.xlsx
+++ b/data/prev_planner.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Р</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>О</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1022,8 +1022,10 @@
       <c r="J5" t="n">
         <v>38957</v>
       </c>
-      <c r="K5" t="n">
-        <v>9438</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="L5" t="n">
         <v>9931</v>
@@ -1054,8 +1056,10 @@
       <c r="T5" t="n">
         <v>26266</v>
       </c>
-      <c r="U5" t="n">
-        <v>8953</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8953</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1167,8 +1171,10 @@
       <c r="J6" t="n">
         <v>38981</v>
       </c>
-      <c r="K6" t="n">
-        <v>9462</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>29462</t>
+        </is>
       </c>
       <c r="L6" t="n">
         <v>9955</v>
@@ -1184,23 +1190,35 @@
       <c r="O6" t="n">
         <v>40747</v>
       </c>
-      <c r="P6" t="n">
-        <v>19859</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>15360</v>
-      </c>
-      <c r="R6" t="n">
-        <v>58529</v>
-      </c>
-      <c r="S6" t="n">
-        <v>30309</v>
-      </c>
-      <c r="T6" t="n">
-        <v>26266</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8977</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>19859</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>15360</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>58529</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>30309</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>26266</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1234,7 +1252,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Р</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1313,7 +1331,7 @@
         <v>39005</v>
       </c>
       <c r="K7" t="n">
-        <v>9486</v>
+        <v>5574749486</v>
       </c>
       <c r="L7" t="n">
         <v>9979</v>
@@ -1329,11 +1347,15 @@
       <c r="O7" t="n">
         <v>40771</v>
       </c>
-      <c r="P7" t="n">
-        <v>19883</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>15384</v>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>19883</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>15384</t>
+        </is>
       </c>
       <c r="R7" t="n">
         <v>58529</v>
@@ -1457,8 +1479,10 @@
       <c r="J8" t="n">
         <v>39029</v>
       </c>
-      <c r="K8" t="n">
-        <v>9510</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>95105</t>
+        </is>
       </c>
       <c r="L8" t="n">
         <v>10003</v>
@@ -1474,11 +1498,15 @@
       <c r="O8" t="n">
         <v>40795</v>
       </c>
-      <c r="P8" t="n">
-        <v>19907</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15408</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>19907</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>15408</t>
+        </is>
       </c>
       <c r="R8" t="n">
         <v>58529</v>
@@ -1602,8 +1630,10 @@
       <c r="J9" t="n">
         <v>39053</v>
       </c>
-      <c r="K9" t="n">
-        <v>9534</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>22414</t>
+        </is>
       </c>
       <c r="L9" t="n">
         <v>10027</v>
@@ -1751,8 +1781,10 @@
       <c r="J10" t="n">
         <v>39077</v>
       </c>
-      <c r="K10" t="n">
-        <v>9550</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>121111</t>
+        </is>
       </c>
       <c r="L10" t="n">
         <v>10051</v>
@@ -1901,7 +1933,7 @@
         <v>39101</v>
       </c>
       <c r="K11" t="n">
-        <v>9574</v>
+        <v>547547759574</v>
       </c>
       <c r="L11" t="n">
         <v>10075</v>
